--- a/special_combination.xlsx
+++ b/special_combination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Downloads\PhoneNumber_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14CFE71-F439-44FC-BA90-500719BAD0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F70DC50-FAFC-493C-9E07-AF77D6A69661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>combination</t>
   </si>
@@ -59,9 +59,6 @@
     <t>五黃病位被陰木剋，皇帝不容反剋自己 → 容易看見靈體(4)、中風</t>
   </si>
   <si>
-    <t>家運無期、損小口(牙病、小朋友)、易小產</t>
-  </si>
-  <si>
     <t>兩金比和 → 發武職(6)、顯權貴(6)</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>主有懸樑之厄，不利長女。煩惱事先合後散(46剋合)、勞碌、難產</t>
   </si>
   <si>
-    <t>風戶見鬼墮胎亡、家運無期、損小口(牙病、小朋友)、易小產</t>
-  </si>
-  <si>
     <t>木(4)火(9)通明，主出聰明奇士(49)、進財，但多出寡婦、不正常桃花、先天合金：利用才智解決不斷的困難</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>八白當令多進橫財。失令則筋骨有損，不利少男、小口。</t>
   </si>
   <si>
-    <t>土金相生，當令大進財富、喜事臨門。失令易犯喉疾、病災、劫盜。</t>
-  </si>
-  <si>
     <t>六白金星化五黃，當元大吉，富並陶朱。失令父難安，長子痴迷。</t>
   </si>
   <si>
@@ -192,6 +183,12 @@
   </si>
   <si>
     <t>兩火比和 → 主喜慶(9)、發文貴(9)</t>
+  </si>
+  <si>
+    <t>風戶見鬼墮胎亡、家運無期、損小口(牙病、小朋友)、易小產、財先得而後破</t>
+  </si>
+  <si>
+    <t>土金相生，當令大進財富、喜事臨門。失令易犯喉疾、病災、劫盜、大破財或有手術事情</t>
   </si>
 </sst>
 </file>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,12 +594,12 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,12 +671,12 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,7 +692,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +700,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +732,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +740,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,12 +748,12 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +761,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +769,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +777,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +809,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +817,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -828,12 +825,12 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -841,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -849,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -881,7 +878,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +886,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +894,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,12 +902,12 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +915,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +923,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +931,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +939,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +955,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +963,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +971,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,12 +979,12 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,7 +992,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1003,7 +1000,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1008,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1016,7 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1024,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1032,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1040,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,12 +1056,12 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1069,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,7 +1093,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1101,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1109,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1117,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1125,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,12 +1133,12 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1146,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1154,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1162,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1194,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1202,7 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1210,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/special_combination.xlsx
+++ b/special_combination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Downloads\PhoneNumber_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F70DC50-FAFC-493C-9E07-AF77D6A69661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972CA358-399B-462B-B165-BD663E34DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="-14010" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/special_combination.xlsx
+++ b/special_combination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Downloads\PhoneNumber_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972CA358-399B-462B-B165-BD663E34DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DBB0E-2E64-49A4-90F4-696A42E8213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4425" yWindow="-14010" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>兩土比和 → 利田宅(8)、利財運(8)、找工作(from notes)</t>
   </si>
   <si>
-    <t>一四同宮，準發科名之顯 → 因智慧(1)而利文昌(4)、名聲(4)、文職(4)、聰明(1)、利桃花(未拍拖旺正桃花)、找工作(from notes)、(from notes)</t>
-  </si>
-  <si>
     <t>兩木比和 → 利桃花(未拍拖旺正桃花)、精神病、是非爭拗(34劫財)、官非訴訟(34劫財)</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>九七合轍，常遭回祿之災 → 說話沒氣(火剋金)、喉嚨痛、上氣不接下氣、口腔問題</t>
   </si>
   <si>
-    <t>土(8)克水(1) → 易犯耳病、腎臟病、膀胱病</t>
-  </si>
-  <si>
     <t>火生土 → 丁(9) 財(8)兩旺、利田宅(8)、找工作(from notes)</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>土金相生，當令大進財富、喜事臨門。失令易犯喉疾、病災、劫盜、大破財或有手術事情</t>
+  </si>
+  <si>
+    <t>一四同宮，準發科名之顯 → 因智慧(1)而利文昌(4)、名聲(4)、文職(4)、聰明(1)、利桃花(未拍拖旺正桃花)、找工作(from notes)</t>
+  </si>
+  <si>
+    <t>土(8)克水(1) → 易犯耳病、腎臟病、膀胱病、易結交貴人(8權1人緣)</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,12 +594,12 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,12 +671,12 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,12 +748,12 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,12 +825,12 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,12 +902,12 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,12 +979,12 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,12 +1056,12 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/special_combination.xlsx
+++ b/special_combination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Downloads\PhoneNumber_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DBB0E-2E64-49A4-90F4-696A42E8213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55ED1D-4F4A-41DA-9947-03B0D1AF2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="-14010" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>兩土比和 → 利田宅(8)、利財運(8)、找工作(from notes)</t>
   </si>
   <si>
-    <t>兩木比和 → 利桃花(未拍拖旺正桃花)、精神病、是非爭拗(34劫財)、官非訴訟(34劫財)</t>
-  </si>
-  <si>
     <t>交劍煞 → 女淫(7)、是非爭拗(67劫財)、官非訴訟(67劫財)、夫妻不和(67劫財)、撞車、拗柴</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>二五交加必損主，兩病星相遇 → 主大病(2+5)、癌症、孤寡</t>
   </si>
   <si>
-    <t>陰陽正配(乾坤)，土生金 → 利武官(6)、置業(2)、穩定(老父配老婦)、吝嗇</t>
-  </si>
-  <si>
     <t>二七先天火 → 易受火災、純陰相配，偏桃花</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>當令財源大旺、醫卜興家、多生女。失令多是非、口舌、劫盜，生缺唇之子。</t>
   </si>
   <si>
-    <t>後天合十五，土生金 → 利財運(8)、旺婚姻嫁娶(艮兌少女少男合)</t>
-  </si>
-  <si>
     <t>九七合轍，常遭回祿之災 → 說話沒氣(火剋金)、喉嚨痛、上氣不接下氣、口腔問題</t>
   </si>
   <si>
@@ -189,6 +180,15 @@
   </si>
   <si>
     <t>土(8)克水(1) → 易犯耳病、腎臟病、膀胱病、易結交貴人(8權1人緣)</t>
+  </si>
+  <si>
+    <t>兩木比和 → 未拍拖旺正桃花(雷風相薄)、精神病、是非爭拗(34劫財)、官非訴訟(34劫財)</t>
+  </si>
+  <si>
+    <t>陰陽正配(乾坤天地定位)，土生金 → 利武官(6)、置業(2)、穩定(老父配老婦)、吝嗇</t>
+  </si>
+  <si>
+    <t>後天合十五，土生金 → 利財運(8)、旺婚姻嫁娶(山澤通氣，艮兌少女少男合)</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,12 +594,12 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,12 +671,12 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,12 +748,12 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,12 +825,12 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,12 +902,12 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,12 +979,12 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,12 +1056,12 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
